--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\SISTEMA EMP SFF\Empeños\Empeños\Comprobantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Empe-o\Empeño.WindowsForms\Empeños\Comprobantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1212" windowWidth="28800" windowHeight="15456"/>
+    <workbookView xWindow="0" yWindow="1668" windowWidth="28800" windowHeight="15456"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -254,37 +254,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,57 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,7 +625,7 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,76 +636,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A11" s="2"/>
@@ -720,12 +714,12 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A13" s="6"/>
@@ -737,95 +731,95 @@
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="1.1000000000000001">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A27" s="4"/>
@@ -834,12 +828,12 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A29" s="3"/>
@@ -848,54 +842,54 @@
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
     </row>
     <row r="35" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A37" s="3"/>
@@ -910,7 +904,22 @@
       <c r="D38" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A19:D22"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
@@ -925,20 +934,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A19:D22"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A34:D35"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1668" windowWidth="28800" windowHeight="15456"/>
+    <workbookView xWindow="0" yWindow="2124" windowWidth="28800" windowHeight="15456"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Detalle</t>
   </si>
   <si>
-    <t>N° Registro:</t>
-  </si>
-  <si>
     <t>Intereses Pagados:</t>
   </si>
   <si>
@@ -93,16 +90,20 @@
   </si>
   <si>
     <t>Retiro</t>
+  </si>
+  <si>
+    <t>N° Pago:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +147,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,10 +242,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -267,20 +276,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,56 +330,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -625,7 +638,7 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,76 +649,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="A8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A11" s="2"/>
@@ -714,12 +727,12 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A13" s="6"/>
@@ -731,9 +744,9 @@
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A15" s="21"/>
@@ -745,7 +758,7 @@
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
@@ -754,8 +767,8 @@
         <v>3</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
@@ -766,60 +779,64 @@
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A23" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A24" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="36">
+        <v>0</v>
+      </c>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="37">
+        <v>0</v>
+      </c>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A27" s="4"/>
@@ -828,12 +845,12 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A29" s="3"/>
@@ -842,54 +859,54 @@
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A37" s="3"/>
@@ -905,21 +922,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A19:D22"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
@@ -934,6 +936,21 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A19:D22"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A34:D35"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2124" windowWidth="28800" windowHeight="15456"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="28800" windowHeight="15456"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -83,16 +83,16 @@
     <t>Tel: 2494-1505</t>
   </si>
   <si>
-    <t>Comprobante de Retiro</t>
-  </si>
-  <si>
     <t>Usuario:</t>
   </si>
   <si>
-    <t>Retiro</t>
-  </si>
-  <si>
     <t>N° Pago:</t>
+  </si>
+  <si>
+    <t>Comprobante de Cancelación</t>
+  </si>
+  <si>
+    <t>Cancelación</t>
   </si>
 </sst>
 </file>
@@ -279,6 +279,63 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,63 +350,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -638,7 +638,7 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+      <selection activeCell="A23" sqref="A23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,76 +649,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="A8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+        <v>19</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A11" s="2"/>
@@ -727,12 +727,12 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A12" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="A12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A13" s="6"/>
@@ -744,9 +744,9 @@
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A15" s="21"/>
@@ -767,8 +767,8 @@
         <v>3</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
@@ -779,64 +779,64 @@
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A23" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="36">
+      <c r="B25" s="26"/>
+      <c r="C25" s="27">
         <v>0</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="37">
+      <c r="B26" s="15"/>
+      <c r="C26" s="25">
         <v>0</v>
       </c>
-      <c r="D26" s="37"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A27" s="4"/>
@@ -845,12 +845,12 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A29" s="3"/>
@@ -859,54 +859,54 @@
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
     </row>
     <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A37" s="3"/>
@@ -922,6 +922,21 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A19:D22"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
@@ -936,21 +951,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A19:D22"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A34:D35"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="28800" windowHeight="15456"/>
+    <workbookView xWindow="0" yWindow="3030" windowWidth="28800" windowHeight="15450"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -283,32 +283,50 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,29 +345,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -638,123 +638,125 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D23"/>
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:4" ht="65.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="16" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A6" s="16" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A7" s="16" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A11" s="2"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+    <row r="14" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B14" s="36">
+        <v>0</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+    </row>
+    <row r="15" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -762,15 +764,15 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="1.1000000000000001">
+    <row r="17" spans="1:4" ht="69" x14ac:dyDescent="0.85">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
@@ -778,143 +780,143 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-    </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A23" s="21" t="s">
+    <row r="19" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A24" s="28" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A24" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A25" s="26" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A25" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27">
+      <c r="B25" s="32"/>
+      <c r="C25" s="33">
         <v>0</v>
       </c>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A26" s="15" t="s">
+      <c r="D25" s="33"/>
+    </row>
+    <row r="26" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A26" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="25">
+      <c r="B26" s="28"/>
+      <c r="C26" s="31">
         <v>0</v>
       </c>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A28" s="33" t="s">
+    <row r="28" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A28" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-    </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-    </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A31" s="35" t="s">
+    <row r="30" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A31" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-    </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-    </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A33" s="35" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-    </row>
-    <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-    </row>
-    <row r="35" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-    </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A36" s="33" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A36" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+    <row r="38" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -922,21 +924,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A19:D22"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
@@ -951,6 +938,21 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A19:D22"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A34:D35"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Empe-o\Empeño.WindowsForms\Empeños\Comprobantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtjarquinm\Documents\GitHub-Donovan\Empe-o\Empeño.WindowsForms\Empeños\Comprobantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0999FCC7-73E9-4E09-AAC4-6CE61342693D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3030" windowWidth="28800" windowHeight="15450"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -98,10 +99,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -244,7 +245,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -276,7 +277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -327,16 +328,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -344,12 +351,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -631,24 +632,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.7265625" customWidth="1"/>
+    <col min="2" max="2" width="36.7265625" customWidth="1"/>
+    <col min="4" max="4" width="64.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="65.45" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" ht="65.5" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -656,7 +657,7 @@
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
     </row>
-    <row r="3" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" ht="51.65" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
@@ -664,7 +665,7 @@
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="1:4" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="122.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>17</v>
       </c>
@@ -672,7 +673,7 @@
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A5" s="20" t="s">
         <v>18</v>
       </c>
@@ -680,7 +681,7 @@
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
     </row>
-    <row r="6" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
@@ -688,7 +689,7 @@
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
     </row>
-    <row r="7" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" ht="54.65" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
@@ -696,7 +697,7 @@
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
     </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A8" s="14" t="s">
         <v>20</v>
       </c>
@@ -704,7 +705,7 @@
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
     </row>
-    <row r="9" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -712,7 +713,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
     </row>
-    <row r="10" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -720,13 +721,13 @@
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
     </row>
-    <row r="11" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A11" s="2"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A12" s="29" t="s">
         <v>21</v>
       </c>
@@ -734,29 +735,29 @@
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
     </row>
-    <row r="13" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="30">
         <v>0</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-    </row>
-    <row r="15" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A15" s="22"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -764,15 +765,15 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="69" x14ac:dyDescent="0.85">
+    <row r="17" spans="1:4" ht="70" x14ac:dyDescent="1.35">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-    </row>
-    <row r="18" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="1:4" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
@@ -780,31 +781,31 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
     </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
     </row>
-    <row r="21" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
     </row>
-    <row r="22" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
     </row>
-    <row r="23" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A23" s="22" t="s">
         <v>22</v>
       </c>
@@ -812,41 +813,41 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A24" s="34" t="s">
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A24" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A25" s="32" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+    </row>
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A25" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33">
+      <c r="B25" s="34"/>
+      <c r="C25" s="35">
         <v>0</v>
       </c>
-      <c r="D25" s="33"/>
-    </row>
-    <row r="26" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A26" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="28"/>
-      <c r="C26" s="31">
+      <c r="C26" s="33">
         <v>0</v>
       </c>
-      <c r="D26" s="31"/>
-    </row>
-    <row r="27" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A28" s="15" t="s">
         <v>4</v>
       </c>
@@ -854,19 +855,19 @@
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
     </row>
-    <row r="29" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A31" s="17" t="s">
         <v>5</v>
       </c>
@@ -874,13 +875,13 @@
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
     </row>
-    <row r="32" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
     </row>
-    <row r="33" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A33" s="17" t="s">
         <v>6</v>
       </c>
@@ -888,7 +889,7 @@
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
     </row>
-    <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>12</v>
       </c>
@@ -896,13 +897,13 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
     </row>
-    <row r="35" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
     </row>
-    <row r="36" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A36" s="15" t="s">
         <v>7</v>
       </c>
@@ -910,13 +911,13 @@
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>

--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtjarquinm\Documents\GitHub-Donovan\Empe-o\Empeño.WindowsForms\Empeños\Comprobantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0999FCC7-73E9-4E09-AAC4-6CE61342693D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2B5A3E-D8EC-4F7B-8E1F-E9C521FCD1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,13 +277,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -298,59 +349,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -639,141 +639,141 @@
   <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7265625" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="4" max="4" width="64.54296875" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="65.5" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:4" ht="65.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" ht="51.65" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:4" ht="122.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A5" s="20" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A6" s="20" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:4" ht="54.65" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A7" s="20" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A8" s="14" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A11" s="2"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+    <row r="14" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="18">
         <v>0</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="70" x14ac:dyDescent="1.35">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:4" ht="69" x14ac:dyDescent="0.85">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-    </row>
-    <row r="18" spans="1:4" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
@@ -781,150 +781,166 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-    </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-    </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A23" s="22" t="s">
+    <row r="19" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A24" s="36" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A24" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-    </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A25" s="34" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="25" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A25" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26">
         <v>0</v>
       </c>
-      <c r="D25" s="35"/>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A26" s="28" t="s">
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="33">
+      <c r="B26" s="14"/>
+      <c r="C26" s="24">
         <v>0</v>
       </c>
-      <c r="D26" s="33"/>
-    </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A28" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+    </row>
+    <row r="29" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A31" s="17" t="s">
+    <row r="30" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A31" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A33" s="17" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A33" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="19" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A36" s="15" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+    </row>
+    <row r="35" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+    </row>
+    <row r="36" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A36" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+    <row r="38" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A19:D22"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
@@ -939,21 +955,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A19:D22"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A34:D35"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtjarquinm\Documents\GitHub-Donovan\Empe-o\Empeño.WindowsForms\Empeños\Comprobantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2B5A3E-D8EC-4F7B-8E1F-E9C521FCD1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CAB9CE-58BE-48A5-8DAC-EF9940CAA2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">CASA DE EMPEÑOS </t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Cancelación</t>
+  </si>
+  <si>
+    <t>Bodegaje</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -281,13 +284,49 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -298,58 +337,25 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -636,10 +642,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D38"/>
+  <dimension ref="A2:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,76 +656,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="65.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A11" s="2"/>
@@ -728,12 +734,12 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A13" s="6"/>
@@ -745,33 +751,33 @@
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="30">
         <v>0</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="69" x14ac:dyDescent="0.85">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
@@ -782,140 +788,142 @@
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A24" s="27" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" ht="59.25" x14ac:dyDescent="0.7">
+      <c r="A24" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+    </row>
+    <row r="25" spans="1:4" ht="59.25" x14ac:dyDescent="0.7">
+      <c r="A25" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A25" s="25" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+    </row>
+    <row r="26" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A26" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26">
+      <c r="B26" s="38"/>
+      <c r="C26" s="37">
         <v>0</v>
       </c>
-      <c r="D25" s="26"/>
-    </row>
-    <row r="26" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A26" s="14" t="s">
+      <c r="D26" s="37"/>
+    </row>
+    <row r="27" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A27" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="24">
+      <c r="B27" s="35"/>
+      <c r="C27" s="36">
         <v>0</v>
       </c>
-      <c r="D26" s="24"/>
-    </row>
-    <row r="27" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A29" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A32" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-    </row>
-    <row r="32" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="34" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A34" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-    </row>
-    <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-    </row>
-    <row r="35" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-    </row>
-    <row r="36" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A36" s="32" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A37" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-    </row>
-    <row r="37" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A38" s="3"/>
@@ -923,16 +931,30 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
+    <row r="39" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A34:D35"/>
+  <mergeCells count="32">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
@@ -941,20 +963,14 @@
     <mergeCell ref="A19:D22"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A35:D36"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteCancelacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtjarquinm\Documents\GitHub-Donovan\Empe-o\Empeño.WindowsForms\Empeños\Comprobantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtjarquinm\Documents\GitHub-Donovan\Empe-o\Empeño.WindowsForms\Empeños\ComprobantesIVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2B5A3E-D8EC-4F7B-8E1F-E9C521FCD1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20810AA-06E9-44F6-82F9-A4274DDC83AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">CASA DE EMPEÑOS </t>
   </si>
@@ -72,9 +72,6 @@
     <t>Detalle</t>
   </si>
   <si>
-    <t>Intereses Pagados:</t>
-  </si>
-  <si>
     <t>D' SANTI</t>
   </si>
   <si>
@@ -94,6 +91,32 @@
   </si>
   <si>
     <t>Cancelación</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intereses Pagados </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IVAI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="48"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>(IVAI)</t>
   </si>
 </sst>
 </file>
@@ -247,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -334,6 +357,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,8 +375,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -638,18 +664,18 @@
   </sheetPr>
   <dimension ref="A2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="64.5703125" customWidth="1"/>
+    <col min="1" max="1" width="46.7265625" customWidth="1"/>
+    <col min="2" max="2" width="36.7265625" customWidth="1"/>
+    <col min="4" max="4" width="64.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="65.45" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" ht="65.5" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -657,31 +683,31 @@
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" ht="51.65" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A3" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="122.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
     </row>
-    <row r="5" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A5" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -689,7 +715,7 @@
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" ht="54.65" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
@@ -697,15 +723,15 @@
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -713,35 +739,35 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A11" s="2"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A12" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -751,21 +777,21 @@
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
     </row>
-    <row r="16" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-    </row>
-    <row r="17" spans="1:4" ht="69" x14ac:dyDescent="0.85">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+    </row>
+    <row r="17" spans="1:4" ht="70" x14ac:dyDescent="1.35">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
@@ -773,7 +799,7 @@
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
@@ -781,47 +807,47 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
     </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
     </row>
-    <row r="21" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
     </row>
-    <row r="22" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31"/>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
     </row>
-    <row r="23" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A23" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
     </row>
-    <row r="24" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A24" s="27" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
     </row>
-    <row r="25" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A25" s="25" t="s">
         <v>9</v>
       </c>
@@ -831,7 +857,7 @@
       </c>
       <c r="D25" s="26"/>
     </row>
-    <row r="26" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A26" s="14" t="s">
         <v>8</v>
       </c>
@@ -841,83 +867,85 @@
       </c>
       <c r="D26" s="24"/>
     </row>
-    <row r="27" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A27" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A28" s="32" t="s">
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A28" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A31" s="34" t="s">
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+    </row>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A31" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-    </row>
-    <row r="32" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-    </row>
-    <row r="33" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A33" s="34" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+    </row>
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A33" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-    </row>
-    <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-    </row>
-    <row r="35" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-    </row>
-    <row r="36" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A36" s="32" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+    </row>
+    <row r="35" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+    </row>
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A36" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-    </row>
-    <row r="37" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+    </row>
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
